--- a/Dados/R2_OS_PCA.xlsx
+++ b/Dados/R2_OS_PCA.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\Datathon_2023\Dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{070FD20D-9AE2-4BAE-A421-550CC1A557FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F209F24-738F-4161-8415-45C41FAA318B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17745" yWindow="1335" windowWidth="19185" windowHeight="14025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="999999"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -80,6 +80,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -100,7 +103,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -123,20 +126,100 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -438,266 +521,276 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
+        <v>0.42415725432883</v>
+      </c>
+      <c r="C2" s="2">
+        <v>-0.27494347123196</v>
+      </c>
+      <c r="D2" s="2">
+        <v>-0.90117641894845002</v>
+      </c>
+      <c r="E2" s="2">
         <v>0.10462878106277</v>
-      </c>
-      <c r="C2">
-        <v>0.42415725432883</v>
-      </c>
-      <c r="D2">
-        <v>-0.27494347123196</v>
-      </c>
-      <c r="E2">
-        <v>-0.90117641894845002</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
+        <v>-3.1767703280409001</v>
+      </c>
+      <c r="C3" s="2">
+        <v>-2.1046567354689998</v>
+      </c>
+      <c r="D3" s="2">
+        <v>3.5584155794154998E-2</v>
+      </c>
+      <c r="E3" s="2">
         <v>-2.1907371743475998</v>
       </c>
-      <c r="C3">
-        <v>-3.1767703280409001</v>
-      </c>
-      <c r="D3">
-        <v>-2.1046567354689998</v>
-      </c>
-      <c r="E3">
-        <v>3.5584155794154998E-2</v>
-      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3">
+        <v>0.82315052744927997</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.28745303393388</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.80753108206194002</v>
+      </c>
+      <c r="E4" s="3">
         <v>0.70600493303337997</v>
-      </c>
-      <c r="C4">
-        <v>0.82315052744927997</v>
-      </c>
-      <c r="D4">
-        <v>0.28745303393388</v>
-      </c>
-      <c r="E4">
-        <v>0.80753108206194002</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
+        <v>-0.91445220411572004</v>
+      </c>
+      <c r="C5" s="2">
+        <v>-0.30694820149368002</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1.1495416930847999</v>
+      </c>
+      <c r="E5" s="2">
         <v>-0.29480179992847</v>
-      </c>
-      <c r="C5">
-        <v>-0.91445220411572004</v>
-      </c>
-      <c r="D5">
-        <v>-0.30694820149368002</v>
-      </c>
-      <c r="E5">
-        <v>1.1495416930847999</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
+        <v>-1.6303958095404001</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.48282167105246998</v>
+      </c>
+      <c r="D6" s="3">
+        <v>2.2462633849193998</v>
+      </c>
+      <c r="E6" s="2">
         <v>-9.3999428371450006E-2</v>
       </c>
-      <c r="C6">
-        <v>-1.6303958095404001</v>
-      </c>
-      <c r="D6">
-        <v>0.48282167105246998</v>
-      </c>
-      <c r="E6">
-        <v>2.2462633849193998</v>
-      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="3">
+        <v>1.4323156577286</v>
+      </c>
+      <c r="C7" s="3">
+        <v>3.9795137132927998</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1.2554899549823</v>
+      </c>
+      <c r="E7" s="3">
         <v>2.5179362597622998</v>
-      </c>
-      <c r="C7">
-        <v>1.4323156577286</v>
-      </c>
-      <c r="D7">
-        <v>3.9795137132927998</v>
-      </c>
-      <c r="E7">
-        <v>1.2554899549823</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
+        <v>-7.2473672521122995E-2</v>
+      </c>
+      <c r="C8" s="3">
+        <v>3.1670502072782001</v>
+      </c>
+      <c r="D8" s="2">
+        <v>-0.99159358280909005</v>
+      </c>
+      <c r="E8" s="3">
         <v>1.2934377340883001</v>
-      </c>
-      <c r="C8">
-        <v>-7.2473672521122995E-2</v>
-      </c>
-      <c r="D8">
-        <v>3.1670502072782001</v>
-      </c>
-      <c r="E8">
-        <v>-0.99159358280909005</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
+        <v>-1.7741848755081999</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.38879553404747003</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1.8749863755992</v>
+      </c>
+      <c r="E9" s="2">
         <v>-0.29036900829737</v>
-      </c>
-      <c r="C9">
-        <v>-1.7741848755081999</v>
-      </c>
-      <c r="D9">
-        <v>0.38879553404747003</v>
-      </c>
-      <c r="E9">
-        <v>1.8749863755992</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="2">
+        <v>-3.2641525606215001</v>
+      </c>
+      <c r="C10" s="2">
+        <v>-2.9941939795472998</v>
+      </c>
+      <c r="D10" s="2">
+        <v>-1.2043936056108999</v>
+      </c>
+      <c r="E10" s="2">
         <v>-2.7333956717419001</v>
-      </c>
-      <c r="C10">
-        <v>-3.2641525606215001</v>
-      </c>
-      <c r="D10">
-        <v>-2.9941939795472998</v>
-      </c>
-      <c r="E10">
-        <v>-1.2043936056108999</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="2">
+        <v>-3.3052398704677999</v>
+      </c>
+      <c r="C11" s="2">
+        <v>-3.9204520702589001</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.49454447353712</v>
+      </c>
+      <c r="E11" s="2">
         <v>-2.9411432425345998</v>
-      </c>
-      <c r="C11">
-        <v>-3.3052398704677999</v>
-      </c>
-      <c r="D11">
-        <v>-3.9204520702589001</v>
-      </c>
-      <c r="E11">
-        <v>0.49454447353712</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="2">
+        <v>-7.2435257112902001</v>
+      </c>
+      <c r="C12" s="2">
+        <v>-6.8456967100110004</v>
+      </c>
+      <c r="D12" s="2">
+        <v>-0.11154838458958</v>
+      </c>
+      <c r="E12" s="2">
         <v>-6.1305346153629001</v>
-      </c>
-      <c r="C12">
-        <v>-7.2435257112902001</v>
-      </c>
-      <c r="D12">
-        <v>-6.8456967100110004</v>
-      </c>
-      <c r="E12">
-        <v>-0.11154838458958</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="2">
+        <v>-0.95287747579341997</v>
+      </c>
+      <c r="C13" s="2">
+        <v>-2.3273627404913002</v>
+      </c>
+      <c r="D13" s="6">
+        <v>0.54468223600628995</v>
+      </c>
+      <c r="E13" s="2">
         <v>-1.3087147259259</v>
-      </c>
-      <c r="C13">
-        <v>-0.95287747579341997</v>
-      </c>
-      <c r="D13">
-        <v>-2.3273627404913002</v>
-      </c>
-      <c r="E13">
-        <v>0.54468223600628995</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="2">
+        <v>-1.8089498971805</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0.68572788270603002</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.78320194551632005</v>
+      </c>
+      <c r="E14" s="2">
         <v>-0.41721323167918001</v>
-      </c>
-      <c r="C14">
-        <v>-1.8089498971805</v>
-      </c>
-      <c r="D14">
-        <v>0.68572788270603002</v>
-      </c>
-      <c r="E14">
-        <v>0.78320194551632005</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="2">
+        <v>-0.50236350061629997</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1.1256125161824</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0.52514400932515004</v>
+      </c>
+      <c r="E15" s="2">
         <v>0.37314296944657999</v>
-      </c>
-      <c r="C15">
-        <v>-0.50236350061629997</v>
-      </c>
-      <c r="D15">
-        <v>1.1256125161824</v>
-      </c>
-      <c r="E15">
-        <v>0.52514400932515004</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <conditionalFormatting sqref="B1:E1048576">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:E15">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>